--- a/file11.xlsx
+++ b/file11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/spencerxie/PycharmProjects/excel_process_scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF8A29B-B350-BA46-89B6-D32FD4DA1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E144C3-10BF-924B-B960-C694C5842CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9440" yWindow="1960" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>哈哈</t>
   </si>
@@ -143,6 +143,28 @@
   </si>
   <si>
     <t>d1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d14</t>
+  </si>
+  <si>
+    <t>d15</t>
+  </si>
+  <si>
+    <t>file4.xlsx</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -515,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -693,6 +715,26 @@
         <v>31</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
